--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>4.957796065447555</v>
+        <v>0.8128076142631111</v>
       </c>
       <c r="R2">
-        <v>44.620164589028</v>
+        <v>7.315268528368</v>
       </c>
       <c r="S2">
-        <v>0.05568010362855001</v>
+        <v>0.009586633444024011</v>
       </c>
       <c r="T2">
-        <v>0.05568010362855001</v>
+        <v>0.009586633444024011</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
         <v>70.92710589517422</v>
@@ -632,10 +632,10 @@
         <v>638.343953056568</v>
       </c>
       <c r="S3">
-        <v>0.796569393775565</v>
+        <v>0.8365474849530689</v>
       </c>
       <c r="T3">
-        <v>0.7965693937755651</v>
+        <v>0.8365474849530689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
         <v>10.84959590727689</v>
@@ -694,10 +694,10 @@
         <v>97.64636316549202</v>
       </c>
       <c r="S4">
-        <v>0.1218498333675479</v>
+        <v>0.1279652123745701</v>
       </c>
       <c r="T4">
-        <v>0.1218498333675479</v>
+        <v>0.1279652123745701</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>0.1318245808576667</v>
+        <v>0.02161202712933333</v>
       </c>
       <c r="R5">
-        <v>1.186421227719</v>
+        <v>0.194508244164</v>
       </c>
       <c r="S5">
-        <v>0.001480497831304492</v>
+        <v>0.00025490236365349</v>
       </c>
       <c r="T5">
-        <v>0.001480497831304492</v>
+        <v>0.00025490236365349</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>1.885905729612667</v>
@@ -818,10 +818,10 @@
         <v>16.973151566514</v>
       </c>
       <c r="S6">
-        <v>0.02118026338161414</v>
+        <v>0.02224325488900852</v>
       </c>
       <c r="T6">
-        <v>0.02118026338161414</v>
+        <v>0.02224325488900851</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>0.2884837161656668</v>
@@ -880,10 +880,10 @@
         <v>2.596353445491001</v>
       </c>
       <c r="S7">
-        <v>0.003239908015418438</v>
+        <v>0.003402511975675061</v>
       </c>
       <c r="T7">
-        <v>0.003239908015418438</v>
+        <v>0.003402511975675061</v>
       </c>
     </row>
   </sheetData>
